--- a/src/main/webapp/cfg/excel/gchtemp.xlsx
+++ b/src/main/webapp/cfg/excel/gchtemp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouga\Documents\GitHub\QData\target\QData-6.0\cfg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouga\Documents\GitHub\QData\src\main\webapp\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC9FC4-FF52-497F-AB55-956416E59AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030674C-E905-48DA-B79A-C01C8D5987F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Guichet</t>
-  </si>
-  <si>
-    <t>Moyenne attente(mm:ss)</t>
-  </si>
-  <si>
-    <t>Moyenne traitement (mm:ss)</t>
   </si>
   <si>
     <t>C20</t>
@@ -146,6 +140,12 @@
   </si>
   <si>
     <t>${service.perTl1Pt + "%"}</t>
+  </si>
+  <si>
+    <t>Moyenne attente(seconde)</t>
+  </si>
+  <si>
+    <t>Moyenne traitement (seconde)</t>
   </si>
 </sst>
 </file>
@@ -950,10 +950,10 @@
     <tableColumn id="8" xr3:uid="{09F6160D-DB7E-4690-B7AC-342C588FD782}" name=" Nb.Absents /Nb.Tickets%" dataDxfId="18"/>
     <tableColumn id="9" xr3:uid="{FBD7B1DA-5557-472D-8A42-C568E5754977}" name="Traités&lt;1mn/Nb.Tickets%" dataDxfId="17"/>
     <tableColumn id="11" xr3:uid="{6799BA7B-1A07-48DD-ADD8-8298F1D4DED5}" name="Sans affect. /Nb.Tickets%" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{AE4B06E2-653D-4AA4-B3FA-4D0340247B23}" name="Moyenne attente(mm:ss)" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{AE4B06E2-653D-4AA4-B3FA-4D0340247B23}" name="Moyenne attente(seconde)" dataDxfId="15"/>
     <tableColumn id="13" xr3:uid="{86E4548B-D5EB-427E-9E7F-31F5B16CB051}" name="&gt; Cible attente" dataDxfId="14"/>
     <tableColumn id="14" xr3:uid="{4296894A-AE57-4327-9530-DC6701F54D6C}" name="(%) Cible attente" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{1A66C528-19E6-47C1-8CB2-C2C5B4CF3FFF}" name="Moyenne traitement (mm:ss)" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{1A66C528-19E6-47C1-8CB2-C2C5B4CF3FFF}" name="Moyenne traitement (seconde)" dataDxfId="12"/>
     <tableColumn id="16" xr3:uid="{1C782847-2F99-46EC-B484-9D6AF8947601}" name="&gt; Cible traitement" dataDxfId="11"/>
     <tableColumn id="17" xr3:uid="{BAC4C132-ECC1-4B5F-B5B0-AAEC6187C76E}" name="(%) Cible traitement" dataDxfId="10"/>
   </tableColumns>
@@ -1178,7 +1178,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1208,7 @@
   <sheetData>
     <row r="1" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -1236,57 +1236,57 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="S4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="6" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -1330,59 +1330,59 @@
     </row>
     <row r="7" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="Q7" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="9" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
@@ -6678,7 +6678,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:Q1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B1 B5:Q6 A5:A9 B8:Q9 A2:Q4 A10:Q1048576">
+  <conditionalFormatting sqref="A1:B1 A2:Q4 B5:Q6 A5:A9 B8:Q9 A10:Q1048576">
     <cfRule type="expression" dxfId="9" priority="7">
       <formula>$C1="Totale"</formula>
     </cfRule>
